--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -127,7 +127,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -601,7 +601,7 @@
     <t>bandhati 1</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -673,7 +673,7 @@
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 2</t>
+    <t>nikkhipati 3</t>
   </si>
   <si>
     <t>bhajati 1</t>
@@ -832,7 +832,7 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>jhāyati 1</t>
+    <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati</t>
@@ -1471,7 +1471,7 @@
     <t>dhītar</t>
   </si>
   <si>
-    <t>samādāya 1</t>
+    <t>samādāya 2</t>
   </si>
   <si>
     <t>āgamma 1</t>
@@ -1483,7 +1483,7 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
-    <t>ādāya 3</t>
+    <t>ādāya 4</t>
   </si>
   <si>
     <t>upasampajja</t>
@@ -1618,7 +1618,7 @@
     <t>sikkhāpada</t>
   </si>
   <si>
-    <t>bhaya 2</t>
+    <t>bhaya 3</t>
   </si>
   <si>
     <t>rūpa 3</t>
@@ -1741,7 +1741,7 @@
     <t>dāna</t>
   </si>
   <si>
-    <t>āsana</t>
+    <t>āsana 1</t>
   </si>
   <si>
     <t>mūla 1</t>
@@ -1873,7 +1873,7 @@
     <t>upasaṅkamituṃ</t>
   </si>
   <si>
-    <t>carituṃ 1</t>
+    <t>carituṃ 2</t>
   </si>
   <si>
     <t>āyu 2</t>
@@ -2026,7 +2026,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -2035,7 +2035,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -2149,7 +2149,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
@@ -2701,7 +2701,7 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
-    <t>takes place; arises; appears</t>
+    <t>appears; arises; takes place</t>
   </si>
   <si>
     <t>is reborn in; re-arises; lit. goes towards</t>
@@ -3628,7 +3628,7 @@
     <t>alms; gift; giving; offering; charity</t>
   </si>
   <si>
-    <t>a seat</t>
+    <t>seat; chair; lit. sitting</t>
   </si>
   <si>
     <t>(of a tree) root; base; foot</t>

--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -46,24 +46,24 @@
     <t>amu</t>
   </si>
   <si>
+    <t>anāpucchanta</t>
+  </si>
+  <si>
+    <t>passanta</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>anāpucchanta</t>
-  </si>
-  <si>
-    <t>passanta</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
     <t>gacchanta</t>
   </si>
   <si>
@@ -94,27 +94,297 @@
     <t>ākaṅkhamāna</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>vaccha 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
     <t>dhamma 15</t>
   </si>
   <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>bhoga 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
     <t>dhamma 06</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 02</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1</t>
+  </si>
+  <si>
+    <t>kāya 2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -124,6 +394,48 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -136,318 +448,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>vaccha 1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 02</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -568,165 +568,165 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>paṭisevati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>ārabhati 1</t>
+  </si>
+  <si>
+    <t>icchati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
     <t>vattati 1</t>
   </si>
   <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>paṭisevati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1</t>
-  </si>
-  <si>
-    <t>icchati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -805,36 +805,36 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>samāpajjati 2</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upādiyati</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>samāpajjati 2</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upādiyati</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -844,27 +844,27 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>atthi 2</t>
+  </si>
+  <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>atthi 2</t>
-  </si>
-  <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -916,15 +916,15 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -973,54 +973,54 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>appamāda</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>appamāda</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
+    <t>mama 2</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>no 4</t>
+  </si>
+  <si>
+    <t>no 6</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 7</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
     <t>me 2</t>
   </si>
   <si>
-    <t>mama 2</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 7</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
     <t>ahaṃ</t>
   </si>
   <si>
@@ -1036,18 +1036,18 @@
     <t>neti 1</t>
   </si>
   <si>
+    <t>na 1</t>
+  </si>
+  <si>
+    <t>saddhiṃ</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 3</t>
   </si>
   <si>
-    <t>na 1</t>
-  </si>
-  <si>
-    <t>saddhiṃ</t>
-  </si>
-  <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1</t>
   </si>
   <si>
@@ -1078,27 +1078,27 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>vo 3</t>
+  </si>
+  <si>
+    <t>vo 2</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 3</t>
+  </si>
+  <si>
+    <t>taṃ 3</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
+    <t>tumhe 2</t>
+  </si>
+  <si>
     <t>tumhe 1</t>
   </si>
   <si>
-    <t>taṃ 3</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 3</t>
-  </si>
-  <si>
-    <t>tumhe 2</t>
-  </si>
-  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
@@ -1153,12 +1153,12 @@
     <t>sakadāgāmī</t>
   </si>
   <si>
+    <t>sukhī 2</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sukhī 2</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
@@ -1171,30 +1171,30 @@
     <t>saṅgaha 1</t>
   </si>
   <si>
+    <t>paññavant</t>
+  </si>
+  <si>
+    <t>balavant</t>
+  </si>
+  <si>
+    <t>satimant 1</t>
+  </si>
+  <si>
     <t>sīlavant</t>
   </si>
   <si>
-    <t>paññavant</t>
-  </si>
-  <si>
-    <t>balavant</t>
-  </si>
-  <si>
-    <t>satimant 1</t>
-  </si>
-  <si>
     <t>assutavant</t>
   </si>
   <si>
+    <t>bhagavant 1</t>
+  </si>
+  <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
-    <t>bhagavant 1</t>
-  </si>
-  <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>satthar 1</t>
   </si>
   <si>
@@ -1219,12 +1219,12 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>kālena</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
-    <t>kālena</t>
-  </si>
-  <si>
     <t>yadā</t>
   </si>
   <si>
@@ -1288,24 +1288,24 @@
     <t>nahāyati</t>
   </si>
   <si>
+    <t>gaccheyya</t>
+  </si>
+  <si>
+    <t>jāneyya</t>
+  </si>
+  <si>
+    <t>āgaccheyya</t>
+  </si>
+  <si>
+    <t>vadeyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
     <t>passeyya 1</t>
   </si>
   <si>
-    <t>gaccheyya</t>
-  </si>
-  <si>
-    <t>jāneyya</t>
-  </si>
-  <si>
-    <t>āgaccheyya</t>
-  </si>
-  <si>
-    <t>vadeyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
@@ -1324,63 +1324,63 @@
     <t>assa 3</t>
   </si>
   <si>
+    <t>sikkhā 2</t>
+  </si>
+  <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>vīmaṃsā 1</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>sākhā 1</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>desanā 3</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>sikkhā 2</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>vīmaṃsā 1</t>
-  </si>
-  <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>sākhā 1</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>desanā 3</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>pajā 2</t>
   </si>
   <si>
@@ -1471,12 +1471,12 @@
     <t>dhītar</t>
   </si>
   <si>
+    <t>āgamma 1</t>
+  </si>
+  <si>
     <t>samādāya 2</t>
   </si>
   <si>
-    <t>āgamma 1</t>
-  </si>
-  <si>
     <t>vineyya 1</t>
   </si>
   <si>
@@ -1498,33 +1498,33 @@
     <t>nisajja</t>
   </si>
   <si>
+    <t>ṭhiti 1</t>
+  </si>
+  <si>
+    <t>kuṭi 1</t>
+  </si>
+  <si>
+    <t>visuddhi 1</t>
+  </si>
+  <si>
+    <t>āpatti 2</t>
+  </si>
+  <si>
     <t>diṭṭhi 1</t>
   </si>
   <si>
+    <t>samāpatti 1</t>
+  </si>
+  <si>
+    <t>ruci</t>
+  </si>
+  <si>
+    <t>sugati</t>
+  </si>
+  <si>
     <t>sati 2</t>
   </si>
   <si>
-    <t>ṭhiti 1</t>
-  </si>
-  <si>
-    <t>kuṭi 1</t>
-  </si>
-  <si>
-    <t>visuddhi 1</t>
-  </si>
-  <si>
-    <t>āpatti 2</t>
-  </si>
-  <si>
-    <t>samāpatti 1</t>
-  </si>
-  <si>
-    <t>ruci</t>
-  </si>
-  <si>
-    <t>sugati</t>
-  </si>
-  <si>
     <t>pīti 1</t>
   </si>
   <si>
@@ -1555,12 +1555,12 @@
     <t>ekato 1</t>
   </si>
   <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
     <t>tattha 1</t>
   </si>
   <si>
@@ -1612,129 +1612,129 @@
     <t>piṇḍāya</t>
   </si>
   <si>
+    <t>bhūta 3</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1</t>
+  </si>
+  <si>
+    <t>vattha 1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>rūpa 3</t>
   </si>
   <si>
-    <t>bhūta 3</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1</t>
-  </si>
-  <si>
-    <t>vattha 1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
     <t>viññāṇa 1</t>
   </si>
   <si>
@@ -1825,36 +1825,36 @@
     <t>aṭṭhi 1</t>
   </si>
   <si>
+    <t>tāva 1</t>
+  </si>
+  <si>
+    <t>api 7</t>
+  </si>
+  <si>
     <t>nu</t>
   </si>
   <si>
     <t>kallaṃ</t>
   </si>
   <si>
+    <t>alaṃ 2</t>
+  </si>
+  <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
     <t>alaṃ 1</t>
   </si>
   <si>
-    <t>tāva 1</t>
-  </si>
-  <si>
-    <t>api 7</t>
-  </si>
-  <si>
-    <t>alaṃ 2</t>
-  </si>
-  <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
     <t>alaṃ 5</t>
   </si>
   <si>
@@ -1945,24 +1945,24 @@
     <t>that; such (person or place or thing); so and so</t>
   </si>
   <si>
+    <t>not asking permission; not informing</t>
+  </si>
+  <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>seeing; regarding; considering</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
     <t>remembering; recollecting</t>
   </si>
   <si>
-    <t>not asking permission; not informing</t>
-  </si>
-  <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing</t>
-  </si>
-  <si>
-    <t>seeing; regarding; considering</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
     <t>going; walking; travelling</t>
   </si>
   <si>
@@ -1993,27 +1993,297 @@
     <t>wishing (for); desiring (for); seeking (for)</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of)</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>obstacle; danger; lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
     <t>act; practice; behaviour</t>
   </si>
   <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possession; property</t>
+  </si>
+  <si>
+    <t>cause; reason; supporting condition; precondition; requirement</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
     <t>matter; thing; phenomena</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
+  </si>
+  <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>schism; break; split</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit; benefit; advantage</t>
+  </si>
+  <si>
+    <t>the wind; air</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>a living being; creature; sentient beings</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; comparison</t>
+  </si>
+  <si>
+    <t>group; host; multitude; lit. collection</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; dung; faeces</t>
+  </si>
+  <si>
+    <t>urine; lit. flowing out</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>cross-legged sitting position</t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -2023,6 +2293,48 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
+    <t>food; fuel; sustenance</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -2035,318 +2347,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>schism; break; split</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit; benefit; advantage</t>
-  </si>
-  <si>
-    <t>the wind; air</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; dung; faeces</t>
-  </si>
-  <si>
-    <t>urine; lit. flowing out</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>cross-legged sitting position</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>food; fuel; sustenance</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -2467,165 +2467,165 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>practices; indulges (in); engages (in); lit. associates</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>binds; ties up; imprisons</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>goes forth; ordains as monk; renounces the household life</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>begins; starts; arouses</t>
+  </si>
+  <si>
+    <t>wishes; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>breathes; inhales</t>
+  </si>
+  <si>
+    <t>wishes (for); desires; intends; plans</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>leaves; abandons; gives up; forsakes</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>grows; increases</t>
+  </si>
+  <si>
+    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>sits; sits down</t>
+  </si>
+  <si>
+    <t>is; is being; becomes; exists</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
+  </si>
+  <si>
+    <t>tries; makes an effort; strives for; exerts oneself</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>enters; goes into</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>grows; increases; multiplies</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>practices; indulges (in); engages (in); lit. associates</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>goes forth; ordains as monk; renounces the household life</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>begins; starts; arouses</t>
-  </si>
-  <si>
-    <t>wishes; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>breathes; inhales</t>
-  </si>
-  <si>
-    <t>wishes (for); desires; intends; plans</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>leaves; abandons; gives up; forsakes</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
-  </si>
-  <si>
-    <t>tries; makes an effort; strives for; exerts oneself</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>enters; goes into</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>grows; increases; multiplies</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -2701,36 +2701,36 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>engages (in); practices; performs</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>grasps; holds onto; clings to; takes as one's own; lit. takes near</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>engages (in); practices; performs</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>grasps; holds onto; clings to; takes as one's own; lit. takes near</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -2740,27 +2740,27 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -2812,15 +2812,15 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -2869,51 +2869,51 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>vigilance; earnestness; carefulness; conscientiousness; heedfulness</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>vigilance; earnestness; carefulness; conscientiousness; heedfulness</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>our; of us</t>
+  </si>
+  <si>
     <t>by me</t>
   </si>
   <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>our; of us</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -2929,18 +2929,18 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
+    <t>(negative particle); no; not</t>
+  </si>
+  <si>
+    <t>together (with); with</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
-  </si>
-  <si>
-    <t>together (with); with</t>
-  </si>
-  <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>no; not</t>
   </si>
   <si>
@@ -2971,27 +2971,27 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you all; for you all</t>
+  </si>
+  <si>
+    <t>by you all; with you all</t>
+  </si>
+  <si>
+    <t>of you all; yours</t>
+  </si>
+  <si>
+    <t>you (object)</t>
+  </si>
+  <si>
     <t>to you; for you all</t>
   </si>
   <si>
+    <t>you all; you (respectful plural) (object)</t>
+  </si>
+  <si>
     <t>you all; you (respectful plural)</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>to you all; for you all</t>
-  </si>
-  <si>
-    <t>by you all; with you all</t>
-  </si>
-  <si>
-    <t>of you all; yours</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural) (object)</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -3043,12 +3043,12 @@
     <t>who returns once; once-returner</t>
   </si>
   <si>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>happy one; who is at ease; who is happy; who is comfortable</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
@@ -3061,30 +3061,30 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
+    <t>wise; insightful; percipient</t>
+  </si>
+  <si>
+    <t>powerful; strong</t>
+  </si>
+  <si>
+    <t>mindful; fully present; attentive; lit. having memory quality</t>
+  </si>
+  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
-  </si>
-  <si>
-    <t>mindful; fully present; attentive; lit. having memory quality</t>
-  </si>
-  <si>
     <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
   </si>
   <si>
+    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. elder; respected</t>
+  </si>
+  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
-  </si>
-  <si>
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
@@ -3109,12 +3109,12 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>at the right moment; at a suitable time; at the proper time</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
-  </si>
-  <si>
     <t>when; whenever; lit. at whichever time</t>
   </si>
   <si>
@@ -3178,24 +3178,24 @@
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
+    <t>could go; would move; could walk</t>
+  </si>
+  <si>
+    <t>could know; would understand; could be aware; would find out</t>
+  </si>
+  <si>
+    <t>could come; would come along; could approach; would arrive</t>
+  </si>
+  <si>
+    <t>should say; could speak</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
     <t>could see; would see</t>
   </si>
   <si>
-    <t>could go; would move; could walk</t>
-  </si>
-  <si>
-    <t>could know; would understand; could be aware; would find out</t>
-  </si>
-  <si>
-    <t>could come; would come along; could approach; would arrive</t>
-  </si>
-  <si>
-    <t>should say; could speak</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
     <t>could become available (for); would accrues (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
@@ -3214,60 +3214,60 @@
     <t>may be; would be; could be</t>
   </si>
   <si>
+    <t>training; practice</t>
+  </si>
+  <si>
+    <t>verse; poem; stanza; lit. in singing way</t>
+  </si>
+  <si>
+    <t>decay; aging</t>
+  </si>
+  <si>
+    <t>inquiry; judgement; investigation; discrimination</t>
+  </si>
+  <si>
+    <t>direction; point of the compass; cardinal point</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; insight</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness</t>
+  </si>
+  <si>
+    <t>army; multitude</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
+  </si>
+  <si>
+    <t>word; speech; statement; talk</t>
+  </si>
+  <si>
+    <t>craving; wanting; desire; lit. thirst</t>
+  </si>
+  <si>
+    <t>sensation; feeling; felt experience</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee</t>
+  </si>
+  <si>
+    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
+  </si>
+  <si>
     <t>personal experience; realization</t>
   </si>
   <si>
-    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
-  </si>
-  <si>
-    <t>training; practice</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. in singing way</t>
-  </si>
-  <si>
-    <t>decay; aging</t>
-  </si>
-  <si>
-    <t>inquiry; judgement; investigation; discrimination</t>
-  </si>
-  <si>
-    <t>direction; point of the compass; cardinal point</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; insight</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness</t>
-  </si>
-  <si>
-    <t>army; multitude</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
-  </si>
-  <si>
-    <t>word; speech; statement; talk</t>
-  </si>
-  <si>
-    <t>craving; wanting; desire; lit. thirst</t>
-  </si>
-  <si>
-    <t>sensation; feeling; felt experience</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee</t>
-  </si>
-  <si>
     <t>people; population; generation; mankind</t>
   </si>
   <si>
@@ -3355,12 +3355,12 @@
     <t>daughter</t>
   </si>
   <si>
+    <t>coming; approaching</t>
+  </si>
+  <si>
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
-    <t>coming; approaching</t>
-  </si>
-  <si>
     <t>removing; getting rid of; giving up; driving out</t>
   </si>
   <si>
@@ -3382,33 +3382,33 @@
     <t>sitting down</t>
   </si>
   <si>
+    <t>stability; constancy; long lasting; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>hut</t>
+  </si>
+  <si>
+    <t>cleanness; purity (of); purification (of); holiness</t>
+  </si>
+  <si>
+    <t>(vinaya) offence; transgression</t>
+  </si>
+  <si>
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
+    <t>attainment; meditation achievement</t>
+  </si>
+  <si>
+    <t>liking; preference; inclination; approval; lit. pleasure</t>
+  </si>
+  <si>
+    <t>good destination; happy fate; heaven; lit. going well</t>
+  </si>
+  <si>
     <t>mindfulness; presence; recollection; awareness</t>
   </si>
   <si>
-    <t>stability; constancy; long lasting; persisting; lit. standing</t>
-  </si>
-  <si>
-    <t>hut</t>
-  </si>
-  <si>
-    <t>cleanness; purity (of); purification (of); holiness</t>
-  </si>
-  <si>
-    <t>(vinaya) offence; transgression</t>
-  </si>
-  <si>
-    <t>attainment; meditation achievement</t>
-  </si>
-  <si>
-    <t>liking; preference; inclination; approval; lit. pleasure</t>
-  </si>
-  <si>
-    <t>good destination; happy fate; heaven; lit. going well</t>
-  </si>
-  <si>
     <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
   </si>
   <si>
@@ -3439,12 +3439,12 @@
     <t>on one side</t>
   </si>
   <si>
+    <t>everywhere; in every place</t>
+  </si>
+  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; in every place</t>
-  </si>
-  <si>
     <t>there; in that place</t>
   </si>
   <si>
@@ -3493,129 +3493,129 @@
     <t>for alms; to collect alms food</t>
   </si>
   <si>
+    <t>being; living being</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
+  </si>
+  <si>
+    <t>homelessness</t>
+  </si>
+  <si>
+    <t>household life; domestic life</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure</t>
+  </si>
+  <si>
+    <t>welfare; good; benefit; blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
+  </si>
+  <si>
+    <t>full development; maturity; completion; plenty; fullness</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; reason; lit. tied down to</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>forest; wood</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size</t>
+  </si>
+  <si>
+    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>side (of the body); flank</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; virtue; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>house; a dwelling place</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>fault; error; mistake; lit. to be avoided</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule; lit. part of training</t>
+  </si>
+  <si>
+    <t>danger; peril</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
     <t xml:space="preserve">which is not given; something not offered </t>
   </si>
   <si>
-    <t>precept; instruction; training rule; lit. part of training</t>
-  </si>
-  <si>
-    <t>danger; peril</t>
-  </si>
-  <si>
     <t>object of the eye; shape; sight</t>
   </si>
   <si>
-    <t>being; living being</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
-  </si>
-  <si>
-    <t>homelessness</t>
-  </si>
-  <si>
-    <t>household life; domestic life</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure</t>
-  </si>
-  <si>
-    <t>welfare; good; benefit; blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
-  </si>
-  <si>
-    <t>full development; maturity; completion; plenty; fullness</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; reason; lit. tied down to</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>forest; wood</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size</t>
-  </si>
-  <si>
-    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>side (of the body); flank</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; virtue; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>house; a dwelling place</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>fault; error; mistake; lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
     <t>awareness; consciousness; fifth of the five aggregates; lit. knowing</t>
   </si>
   <si>
@@ -3706,34 +3706,34 @@
     <t>a bone</t>
   </si>
   <si>
+    <t>that much; that far; as long as; to that extent; until; at least</t>
+  </si>
+  <si>
+    <t>too; also; as well</t>
+  </si>
+  <si>
     <t>surely?; didn't?; wouldn't?</t>
   </si>
   <si>
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
+    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
+  </si>
+  <si>
+    <t>how?; in what way?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; up to; until; from … to …</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
     <t>(it is) suitable (to); proper (to); worthy (for); lit. enough (to)</t>
-  </si>
-  <si>
-    <t>that much; that far; as long as; to that extent; until; at least</t>
-  </si>
-  <si>
-    <t>too; also; as well</t>
-  </si>
-  <si>
-    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
-  </si>
-  <si>
-    <t>how?; in what way?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; up to; until; from … to …</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
   </si>
   <si>
     <t>that's enough (of)! stop (with)!</t>
@@ -7479,7 +7479,7 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C188" t="s">
         <v>824</v>
@@ -7564,7 +7564,7 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C193" t="s">
         <v>829</v>
@@ -8975,7 +8975,7 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C276" t="s">
         <v>911</v>
@@ -9009,7 +9009,7 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C278" t="s">
         <v>913</v>
@@ -9862,7 +9862,7 @@
         <v>623</v>
       </c>
       <c r="C328" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D328" t="s">
         <v>1271</v>
@@ -9879,7 +9879,7 @@
         <v>623</v>
       </c>
       <c r="C329" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="D329" t="s">
         <v>1271</v>
@@ -11936,7 +11936,7 @@
         <v>633</v>
       </c>
       <c r="C450" t="s">
-        <v>1083</v>
+        <v>663</v>
       </c>
       <c r="D450" t="s">
         <v>1289</v>
@@ -11953,7 +11953,7 @@
         <v>633</v>
       </c>
       <c r="C451" t="s">
-        <v>677</v>
+        <v>1083</v>
       </c>
       <c r="D451" t="s">
         <v>1289</v>

--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -46,507 +46,507 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>vinaya 1</t>
   </si>
   <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
   </si>
   <si>
     <t>passāva</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
   </si>
   <si>
     <t>sakka 3</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna 1</t>
   </si>
   <si>
@@ -589,153 +589,153 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -772,33 +772,33 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -808,6 +808,9 @@
     <t>samāpajjati 2</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -817,33 +820,30 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -901,18 +901,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -922,6 +922,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -940,9 +943,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -961,12 +961,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1006,6 +1006,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -1027,9 +1030,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1090,6 +1090,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -1099,24 +1102,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -1201,27 +1201,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
@@ -1234,33 +1237,30 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -1279,12 +1279,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -1339,6 +1339,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -1387,12 +1393,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -1435,36 +1435,36 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -1519,21 +1519,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -1543,39 +1543,39 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -1678,6 +1678,9 @@
     <t>passa 1.1</t>
   </si>
   <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
     <t>vattha 1.1</t>
   </si>
   <si>
@@ -1717,21 +1720,18 @@
     <t>saraṇa 2.1</t>
   </si>
   <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>bhojana 2</t>
   </si>
   <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
     <t>rūpa 3</t>
   </si>
   <si>
@@ -1945,504 +1945,504 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>urine</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
     <t>Sakyan; of the Sakyan people</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
     <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
@@ -2485,153 +2485,153 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -2644,12 +2644,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -2668,30 +2668,30 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -2701,6 +2701,9 @@
     <t>engages (in); practices; performs</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -2710,33 +2713,30 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -2794,18 +2794,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -2815,6 +2815,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -2833,9 +2836,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -2854,12 +2854,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -2899,6 +2899,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -2920,9 +2923,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -2983,6 +2983,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -2992,24 +2995,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -3094,27 +3094,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
@@ -3127,33 +3130,30 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -3172,12 +3172,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -3232,6 +3232,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -3277,12 +3283,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -3325,33 +3325,33 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -3406,21 +3406,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -3430,36 +3430,36 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -3562,6 +3562,9 @@
     <t>(of the body) side; rib</t>
   </si>
   <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
     <t>cloth; clothes; robe</t>
   </si>
   <si>
@@ -3601,19 +3604,16 @@
     <t>shelter; refuge; help; lit. going to</t>
   </si>
   <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
   </si>
   <si>
     <t>(object of the eye) form; material form; shape; sight; lit. form</t>
@@ -7145,7 +7145,7 @@
         <v>625</v>
       </c>
       <c r="C168" t="s">
-        <v>804</v>
+        <v>682</v>
       </c>
       <c r="D168" t="s">
         <v>1256</v>
@@ -7162,7 +7162,7 @@
         <v>625</v>
       </c>
       <c r="C169" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D169" t="s">
         <v>1256</v>
@@ -7179,7 +7179,7 @@
         <v>625</v>
       </c>
       <c r="C170" t="s">
-        <v>684</v>
+        <v>805</v>
       </c>
       <c r="D170" t="s">
         <v>1256</v>
@@ -7482,7 +7482,7 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C188" t="s">
         <v>823</v>
@@ -7618,7 +7618,7 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C196" t="s">
         <v>831</v>
@@ -11939,7 +11939,7 @@
         <v>633</v>
       </c>
       <c r="C450" t="s">
-        <v>663</v>
+        <v>1084</v>
       </c>
       <c r="D450" t="s">
         <v>1290</v>
@@ -11956,7 +11956,7 @@
         <v>633</v>
       </c>
       <c r="C451" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D451" t="s">
         <v>1290</v>
@@ -11973,7 +11973,7 @@
         <v>633</v>
       </c>
       <c r="C452" t="s">
-        <v>1085</v>
+        <v>662</v>
       </c>
       <c r="D452" t="s">
         <v>1290</v>
@@ -12398,7 +12398,7 @@
         <v>634</v>
       </c>
       <c r="C477" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D477" t="s">
         <v>634</v>
@@ -12415,7 +12415,7 @@
         <v>634</v>
       </c>
       <c r="C478" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D478" t="s">
         <v>634</v>
@@ -13027,7 +13027,7 @@
         <v>629</v>
       </c>
       <c r="C514" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D514" t="s">
         <v>629</v>
@@ -13044,7 +13044,7 @@
         <v>629</v>
       </c>
       <c r="C515" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D515" t="s">
         <v>629</v>

--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -46,25 +46,28 @@
     <t>amu</t>
   </si>
   <si>
+    <t>jānanta</t>
+  </si>
+  <si>
     <t>passanta 1</t>
   </si>
   <si>
-    <t>jānanta</t>
-  </si>
-  <si>
     <t>samanupassanta</t>
   </si>
   <si>
     <t>tiṭṭhanta 1</t>
   </si>
   <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
+    <t>apassanta</t>
   </si>
   <si>
     <t>ajānanta</t>
@@ -73,285 +76,327 @@
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>apassanta</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
     <t>cavamāna</t>
   </si>
   <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>caramāna</t>
   </si>
   <si>
     <t>sampassamāna</t>
   </si>
   <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -370,15 +415,9 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
     <t>ogha 1</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -391,15 +430,9 @@
     <t>uddesa 1</t>
   </si>
   <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
@@ -439,24 +472,15 @@
     <t>sahāya</t>
   </si>
   <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
     <t>paribbājaka</t>
   </si>
   <si>
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -466,36 +490,18 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>amanasikāra 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>udapāna</t>
   </si>
   <si>
@@ -523,9 +529,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -538,9 +541,6 @@
     <t>passāva</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -589,6 +589,9 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
@@ -604,84 +607,81 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
     <t>ārabhati 1.1</t>
   </si>
   <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
     <t>vattati 1</t>
   </si>
   <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>nisīdati</t>
   </si>
   <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -751,12 +751,12 @@
     <t>seti 2</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>ehi</t>
   </si>
   <si>
@@ -811,42 +811,48 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
     <t>upādiyati</t>
   </si>
   <si>
     <t>atthi 2</t>
   </si>
   <si>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>amha 1.1</t>
   </si>
   <si>
@@ -856,15 +862,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -958,15 +958,15 @@
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -976,18 +976,18 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
     <t>appamāda</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -1186,12 +1186,12 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
@@ -1234,15 +1234,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -1348,6 +1348,9 @@
     <t>paññā 1</t>
   </si>
   <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -1381,9 +1384,6 @@
     <t>pabbajjā</t>
   </si>
   <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
@@ -1420,12 +1420,12 @@
     <t>vipassanā</t>
   </si>
   <si>
+    <t>ovāda</t>
+  </si>
+  <si>
     <t>asammosa</t>
   </si>
   <si>
-    <t>ovāda</t>
-  </si>
-  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
@@ -1591,6 +1591,9 @@
     <t>pāripūrī</t>
   </si>
   <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
     <t>anusāsanī</t>
   </si>
   <si>
@@ -1600,9 +1603,6 @@
     <t>bārāṇasī 1</t>
   </si>
   <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
     <t>sāvatthī</t>
   </si>
   <si>
@@ -1612,192 +1612,195 @@
     <t>piṇḍāya</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>brahmacariya 1</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
     <t>bhūta 3</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
   </si>
   <si>
     <t>arañña</t>
   </si>
   <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>jhāna 2</t>
   </si>
   <si>
     <t>dassanāya 2</t>
   </si>
   <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
-    <t>jhāna 2</t>
-  </si>
-  <si>
     <t>dukkaṭa 3</t>
   </si>
   <si>
@@ -1810,9 +1813,6 @@
     <t>pārājika 3</t>
   </si>
   <si>
-    <t>brahmacariya 1</t>
-  </si>
-  <si>
     <t>saṃyojana 1</t>
   </si>
   <si>
@@ -1837,30 +1837,30 @@
     <t>kallaṃ</t>
   </si>
   <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>alaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
+    <t>api 1.2</t>
+  </si>
+  <si>
     <t>alaṃ 2</t>
   </si>
   <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
-    <t>api 1.2</t>
-  </si>
-  <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
@@ -1879,12 +1879,12 @@
     <t>āyu 2</t>
   </si>
   <si>
+    <t>vatthu 2</t>
+  </si>
+  <si>
     <t>cakkhu 1</t>
   </si>
   <si>
-    <t>vatthu 2</t>
-  </si>
-  <si>
     <t>pron</t>
   </si>
   <si>
@@ -1945,25 +1945,28 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
     <t>seeing</t>
   </si>
   <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
     <t>seeing; perceiving</t>
   </si>
   <si>
     <t>standing; standing still</t>
   </si>
   <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
     <t>remembering; recollecting; keeping in mind</t>
   </si>
   <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+    <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
     <t>not knowing; being ignorant (of)</t>
@@ -1972,285 +1975,327 @@
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>not seeing; not noticing; not aware</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
     <t>falling away; dying</t>
   </si>
   <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>walking; walking about; wandering around (in); going around</t>
   </si>
   <si>
     <t>seeing; observing; considering</t>
   </si>
   <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -2269,15 +2314,9 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
     <t>(of water) flood; deluge; torrent</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -2290,15 +2329,9 @@
     <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
   </si>
   <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
@@ -2338,24 +2371,15 @@
     <t>friend; companion; ally; fellow traveller; lit. going with</t>
   </si>
   <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -2365,36 +2389,18 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>non-attention; ignoring; lit. not making in mind</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>well; (comm) pond; pool; lit. water drinking</t>
   </si>
   <si>
@@ -2422,9 +2428,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -2434,9 +2437,6 @@
     <t>urine</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -2485,6 +2485,9 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
@@ -2500,84 +2503,81 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
   </si>
   <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>sits (on); sits down (in)</t>
   </si>
   <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -2647,12 +2647,12 @@
     <t>sleeps</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>come!</t>
   </si>
   <si>
@@ -2704,42 +2704,48 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
     <t>there are; they are</t>
   </si>
   <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>we are</t>
   </si>
   <si>
@@ -2749,15 +2755,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -2851,15 +2851,15 @@
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -2869,18 +2869,18 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
     <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -3079,12 +3079,12 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>venerable; reverend; lit. having age quality</t>
+  </si>
+  <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>venerable; reverend; lit. having age quality</t>
-  </si>
-  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
@@ -3127,15 +3127,15 @@
     <t>always; ever; all the time</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>and; both</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -3310,12 +3310,12 @@
     <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
   </si>
   <si>
+    <t>advice; instruction encouragement; exhortation</t>
+  </si>
+  <si>
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
-    <t>advice; instruction encouragement; exhortation</t>
-  </si>
-  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
@@ -3475,6 +3475,9 @@
     <t>fulfilment; completion; perfecting; maturity</t>
   </si>
   <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
     <t>advice; instruction; teaching</t>
   </si>
   <si>
@@ -3484,9 +3487,6 @@
     <t>name of a city; modern Varanasi</t>
   </si>
   <si>
-    <t>nun; fully ordained nun</t>
-  </si>
-  <si>
     <t>name of a city; capital of Kosala</t>
   </si>
   <si>
@@ -3496,192 +3496,195 @@
     <t>for alms; to collect alms food</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
   </si>
   <si>
     <t>forest; wood; wilds; wilderness; lit. remoteness</t>
   </si>
   <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>meditation; stage of meditation; lit. meditating</t>
   </si>
   <si>
     <t>in order to visit; for the purpose of seeing</t>
   </si>
   <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
-  </si>
-  <si>
-    <t>meditation; stage of meditation; lit. meditating</t>
-  </si>
-  <si>
     <t>class of vinaya offence; wrong-doing; lit. badly done</t>
   </si>
   <si>
@@ -3694,9 +3697,6 @@
     <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
   </si>
   <si>
-    <t>spiritual path; spiritual practice; holy life; celibacy</t>
-  </si>
-  <si>
     <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
   </si>
   <si>
@@ -3721,30 +3721,30 @@
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; so much so; up to; until; from … to</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
+    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
+  </si>
+  <si>
+    <t>that’s enough (of)!; stop (with)!</t>
+  </si>
+  <si>
+    <t>even; even then</t>
+  </si>
+  <si>
     <t>is able (to); is possible (to); is capable (of); lit. enough</t>
   </si>
   <si>
-    <t>how?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; so much so; up to; until; from … to</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
-  </si>
-  <si>
-    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
-  </si>
-  <si>
-    <t>that’s enough (of)!; stop (with)!</t>
-  </si>
-  <si>
-    <t>even; even then</t>
-  </si>
-  <si>
     <t>to see (as); to regard (as); to consider (as)</t>
   </si>
   <si>
@@ -3763,10 +3763,10 @@
     <t>life force; life energy</t>
   </si>
   <si>
+    <t>site; location; base; grounds; lit. ground</t>
+  </si>
+  <si>
     <t>eye</t>
-  </si>
-  <si>
-    <t>site; location; base; grounds; lit. ground</t>
   </si>
   <si>
     <t>a-pron</t>
@@ -7145,7 +7145,7 @@
         <v>625</v>
       </c>
       <c r="C168" t="s">
-        <v>682</v>
+        <v>804</v>
       </c>
       <c r="D168" t="s">
         <v>1256</v>
@@ -7162,7 +7162,7 @@
         <v>625</v>
       </c>
       <c r="C169" t="s">
-        <v>804</v>
+        <v>683</v>
       </c>
       <c r="D169" t="s">
         <v>1256</v>
@@ -8978,7 +8978,7 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C276" t="s">
         <v>910</v>
@@ -9012,7 +9012,7 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C278" t="s">
         <v>912</v>
@@ -11786,7 +11786,7 @@
         <v>633</v>
       </c>
       <c r="C441" t="s">
-        <v>1075</v>
+        <v>745</v>
       </c>
       <c r="D441" t="s">
         <v>1290</v>
@@ -11803,7 +11803,7 @@
         <v>633</v>
       </c>
       <c r="C442" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D442" t="s">
         <v>1290</v>
@@ -11820,7 +11820,7 @@
         <v>633</v>
       </c>
       <c r="C443" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D443" t="s">
         <v>1290</v>
@@ -11837,7 +11837,7 @@
         <v>633</v>
       </c>
       <c r="C444" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D444" t="s">
         <v>1290</v>
@@ -11854,7 +11854,7 @@
         <v>633</v>
       </c>
       <c r="C445" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D445" t="s">
         <v>1290</v>
@@ -11871,7 +11871,7 @@
         <v>633</v>
       </c>
       <c r="C446" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D446" t="s">
         <v>1290</v>
@@ -11888,7 +11888,7 @@
         <v>633</v>
       </c>
       <c r="C447" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D447" t="s">
         <v>1290</v>
@@ -11905,7 +11905,7 @@
         <v>633</v>
       </c>
       <c r="C448" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D448" t="s">
         <v>1290</v>
@@ -11922,7 +11922,7 @@
         <v>633</v>
       </c>
       <c r="C449" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D449" t="s">
         <v>1290</v>
@@ -11939,7 +11939,7 @@
         <v>633</v>
       </c>
       <c r="C450" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D450" t="s">
         <v>1290</v>
@@ -11956,7 +11956,7 @@
         <v>633</v>
       </c>
       <c r="C451" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D451" t="s">
         <v>1290</v>
@@ -11973,7 +11973,7 @@
         <v>633</v>
       </c>
       <c r="C452" t="s">
-        <v>662</v>
+        <v>1085</v>
       </c>
       <c r="D452" t="s">
         <v>1290</v>

--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -2764,7 +2764,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>

--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -883,30 +883,30 @@
     <t>hotha</t>
   </si>
   <si>
+    <t>ajjhabhāsi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>ajjhabhāsi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -1162,12 +1162,12 @@
     <t>medhāvī</t>
   </si>
   <si>
+    <t>brahmacārī 2</t>
+  </si>
+  <si>
     <t>pakkhī</t>
   </si>
   <si>
-    <t>brahmacārī 2</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -2230,7 +2230,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>
@@ -2503,7 +2503,7 @@
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wards off; prevents; guards against</t>
+    <t>protects; guards; watches over</t>
   </si>
   <si>
     <t>go!; begone!</t>
@@ -2776,30 +2776,30 @@
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
+    <t>addressed; spoke (to)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>addressed; spoke (to)</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -3055,10 +3055,10 @@
     <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
   </si>
   <si>
+    <t>celibate man; who abstains from sexual intercourse</t>
+  </si>
+  <si>
     <t>bird; lit. with wings</t>
-  </si>
-  <si>
-    <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>

--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -1648,90 +1648,90 @@
     <t>vepulla 1</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -3532,88 +3532,88 @@
     <t>expansion; full development; maturity</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>

--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -928,27 +928,27 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2821,27 +2821,27 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -2944,7 +2944,7 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>do not; may one not; don’t let</t>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -3382,7 +3382,7 @@
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -3712,7 +3712,7 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>that much; that far; as long as; to that extent; until; at least</t>
@@ -3733,7 +3733,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class10.xlsx
+++ b/pali-class/vocab/vocab-class10.xlsx
@@ -163,357 +163,357 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -634,6 +634,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -670,15 +673,15 @@
     <t>gacchati 1</t>
   </si>
   <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
     <t>padahati 1</t>
   </si>
   <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
     <t>pavisati</t>
   </si>
   <si>
@@ -721,9 +724,6 @@
     <t>tiṭṭhati 3</t>
   </si>
   <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -829,6 +829,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -841,9 +844,6 @@
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>atthi 1</t>
   </si>
   <si>
@@ -1012,24 +1012,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1186,15 +1186,15 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -1471,6 +1471,12 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
@@ -1483,15 +1489,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -1552,18 +1552,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -1681,6 +1681,9 @@
     <t>sarīra 1</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -1813,9 +1816,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -2062,354 +2062,354 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -2530,6 +2530,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -2566,15 +2569,15 @@
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
     <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
   </si>
   <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
     <t>enters; goes (into)</t>
   </si>
   <si>
@@ -2617,9 +2620,6 @@
     <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -2722,6 +2722,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -2734,9 +2737,6 @@
     <t>causes; effects</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>there is; there exists</t>
   </si>
   <si>
@@ -2905,24 +2905,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -3079,15 +3079,15 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -3358,6 +3358,12 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
@@ -3370,15 +3376,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -3439,15 +3439,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -3565,6 +3565,9 @@
     <t>body</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -3695,9 +3698,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -5950,7 +5950,7 @@
         <v>625</v>
       </c>
       <c r="C97" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="D97" t="s">
         <v>1256</v>
@@ -5967,7 +5967,7 @@
         <v>625</v>
       </c>
       <c r="C98" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D98" t="s">
         <v>1256</v>
@@ -5984,7 +5984,7 @@
         <v>625</v>
       </c>
       <c r="C99" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="D99" t="s">
         <v>1256</v>
@@ -12036,7 +12036,7 @@
         <v>629</v>
       </c>
       <c r="C455" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D455" t="s">
         <v>1293</v>
@@ -12971,7 +12971,7 @@
         <v>631</v>
       </c>
       <c r="C510" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D510" t="s">
         <v>631</v>
@@ -12988,7 +12988,7 @@
         <v>631</v>
       </c>
       <c r="C511" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D511" t="s">
         <v>631</v>
